--- a/results/Overlap_with_HWO_M_earth_2025.08.21.xlsx
+++ b/results/Overlap_with_HWO_M_earth_2025.08.21.xlsx
@@ -750,10 +750,10 @@
         <v>146.8363282048687</v>
       </c>
       <c r="R2" t="n">
-        <v>0.03174237862080333</v>
+        <v>0.1150564579126169</v>
       </c>
       <c r="S2" t="n">
-        <v>0.194593739214628</v>
+        <v>0.7053430567844436</v>
       </c>
       <c r="T2" t="n">
         <v>0.02255447884797728</v>
@@ -771,7 +771,7 @@
         <v>0.202702878750416</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.1671760224648676</v>
+        <v>0.6059621814264952</v>
       </c>
       <c r="Z2" t="n">
         <v>2.064047149042696</v>
@@ -891,10 +891,10 @@
         <v>228.5347196553994</v>
       </c>
       <c r="R3" t="n">
-        <v>0.03732700626126412</v>
+        <v>0.1329060090689602</v>
       </c>
       <c r="S3" t="n">
-        <v>0.2966976433916406</v>
+        <v>1.056417420870683</v>
       </c>
       <c r="T3" t="n">
         <v>0.02891928891901866</v>
@@ -912,7 +912,7 @@
         <v>0.2978263408351925</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.1965557971245354</v>
+        <v>0.699853783406671</v>
       </c>
       <c r="Z3" t="n">
         <v>2.679201724604715</v>
@@ -1037,10 +1037,10 @@
         <v>290.2632249120762</v>
       </c>
       <c r="R4" t="n">
-        <v>0.03496927853015687</v>
+        <v>0.1504895836599083</v>
       </c>
       <c r="S4" t="n">
-        <v>0.3069766345416941</v>
+        <v>1.321067744810924</v>
       </c>
       <c r="T4" t="n">
         <v>0.02453552048916287</v>
@@ -1058,7 +1058,7 @@
         <v>0.3480613225914486</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.1841129836303706</v>
+        <v>0.7923265053645273</v>
       </c>
       <c r="Z4" t="n">
         <v>1.543004944765388</v>
@@ -1178,10 +1178,10 @@
         <v>286.4984016926896</v>
       </c>
       <c r="R5" t="n">
-        <v>0.03724406184588368</v>
+        <v>0.1495409269050694</v>
       </c>
       <c r="S5" t="n">
-        <v>0.3255260510962085</v>
+        <v>1.30703969975429</v>
       </c>
       <c r="T5" t="n">
         <v>0.02776321715006791</v>
@@ -1199,7 +1199,7 @@
         <v>0.3480910666462196</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.1960916224752597</v>
+        <v>0.7873395523992832</v>
       </c>
       <c r="Z5" t="n">
         <v>1.651835053210155</v>
@@ -1314,10 +1314,10 @@
         <v>287.9302939885354</v>
       </c>
       <c r="R6" t="n">
-        <v>0.03077143660308182</v>
+        <v>0.1493590408051323</v>
       </c>
       <c r="S6" t="n">
-        <v>0.2670928632313241</v>
+        <v>1.296420910492415</v>
       </c>
       <c r="T6" t="n">
         <v>0.01802962316473172</v>
@@ -1335,7 +1335,7 @@
         <v>0.3543630846710932</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.1620123638769047</v>
+        <v>0.7863789909894255</v>
       </c>
       <c r="Z6" t="n">
         <v>1.594096148262637</v>
@@ -1457,10 +1457,10 @@
         <v>279.9616300555159</v>
       </c>
       <c r="R7" t="n">
-        <v>0.03128439849292142</v>
+        <v>0.1414091646652366</v>
       </c>
       <c r="S7" t="n">
-        <v>0.2786188723833672</v>
+        <v>1.25939010822333</v>
       </c>
       <c r="T7" t="n">
         <v>0.01951673493203052</v>
@@ -1478,7 +1478,7 @@
         <v>0.3531250985305872</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.1647165002425228</v>
+        <v>0.7445379750915352</v>
       </c>
       <c r="Z7" t="n">
         <v>1.953362366508123</v>
@@ -1603,10 +1603,10 @@
         <v>322.3691793121412</v>
       </c>
       <c r="R8" t="n">
-        <v>0.0366328287326602</v>
+        <v>0.1570249706070675</v>
       </c>
       <c r="S8" t="n">
-        <v>0.338693237832292</v>
+        <v>1.451793310954781</v>
       </c>
       <c r="T8" t="n">
         <v>0.02628047436739453</v>
@@ -1624,7 +1624,7 @@
         <v>0.3903762955612762</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.1928546922008215</v>
+        <v>0.826662952928614</v>
       </c>
       <c r="Z8" t="n">
         <v>1.475220959575942</v>
@@ -1749,10 +1749,10 @@
         <v>247.0790069248813</v>
       </c>
       <c r="R9" t="n">
-        <v>0.03636306763672735</v>
+        <v>0.1378712521730261</v>
       </c>
       <c r="S9" t="n">
-        <v>0.2945959838524826</v>
+        <v>1.116966191759442</v>
       </c>
       <c r="T9" t="n">
         <v>0.02722070018900806</v>
@@ -1770,7 +1770,7 @@
         <v>0.3411914972751889</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.1914717678707517</v>
+        <v>0.7259687949280884</v>
       </c>
       <c r="Z9" t="n">
         <v>1.822600914437338</v>
@@ -1895,10 +1895,10 @@
         <v>366.3081757600916</v>
       </c>
       <c r="R10" t="n">
-        <v>0.03081084051179616</v>
+        <v>0.1611859465070608</v>
       </c>
       <c r="S10" t="n">
-        <v>0.3107187960066602</v>
+        <v>1.625515643193604</v>
       </c>
       <c r="T10" t="n">
         <v>0.01637030220685233</v>
@@ -1916,7 +1916,7 @@
         <v>0.4326924435957378</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.1621832789324965</v>
+        <v>0.8484567408131748</v>
       </c>
       <c r="Z10" t="n">
         <v>1.523822441374162</v>
@@ -2041,10 +2041,10 @@
         <v>380.5274144141753</v>
       </c>
       <c r="R11" t="n">
-        <v>0.03401653769105738</v>
+        <v>0.1699465612478473</v>
       </c>
       <c r="S11" t="n">
-        <v>0.3384948104157683</v>
+        <v>1.691119465268943</v>
       </c>
       <c r="T11" t="n">
         <v>0.02107465648370898</v>
@@ -2062,7 +2062,7 @@
         <v>0.4466196204122587</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.1790493396555343</v>
+        <v>0.8945301795413265</v>
       </c>
       <c r="Z11" t="n">
         <v>1.25015691391364</v>
@@ -2187,10 +2187,10 @@
         <v>341.1003177716052</v>
       </c>
       <c r="R12" t="n">
-        <v>0.02795255418107379</v>
+        <v>0.1488961910983873</v>
       </c>
       <c r="S12" t="n">
-        <v>0.2834702952184445</v>
+        <v>1.509974615348027</v>
       </c>
       <c r="T12" t="n">
         <v>0.01191977177733519</v>
@@ -2208,7 +2208,7 @@
         <v>0.4157277311659264</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.1471491063827047</v>
+        <v>0.7838260976791516</v>
       </c>
       <c r="Z12" t="n">
         <v>1.862479016448404</v>
@@ -2333,10 +2333,10 @@
         <v>385.2572653608295</v>
       </c>
       <c r="R13" t="n">
-        <v>0.03788696691772962</v>
+        <v>0.1729452700183139</v>
       </c>
       <c r="S13" t="n">
-        <v>0.3760417647198105</v>
+        <v>1.716543968242473</v>
       </c>
       <c r="T13" t="n">
         <v>0.0266835699232979</v>
@@ -2354,7 +2354,7 @@
         <v>0.4553339240359908</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.1994186036416302</v>
+        <v>0.9102999542921336</v>
       </c>
       <c r="Z13" t="n">
         <v>1.307798176103015</v>
@@ -2479,10 +2479,10 @@
         <v>385.2225537287616</v>
       </c>
       <c r="R14" t="n">
-        <v>0.03247770124366596</v>
+        <v>0.1584492338038465</v>
       </c>
       <c r="S14" t="n">
-        <v>0.3500594788293594</v>
+        <v>1.707838119149622</v>
       </c>
       <c r="T14" t="n">
         <v>0.01940952901620808</v>
@@ -2500,7 +2500,7 @@
         <v>0.4533266657477791</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.1709468744860349</v>
+        <v>0.8339999521597034</v>
       </c>
       <c r="Z14" t="n">
         <v>1.709930499665041</v>
@@ -2625,10 +2625,10 @@
         <v>330.4130344899417</v>
       </c>
       <c r="R15" t="n">
-        <v>0.03832058172649236</v>
+        <v>0.148128985927394</v>
       </c>
       <c r="S15" t="n">
-        <v>0.3834449905845575</v>
+        <v>1.482214388592182</v>
       </c>
       <c r="T15" t="n">
         <v>0.02894834564095486</v>
@@ -2646,7 +2646,7 @@
         <v>0.4172744899777965</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.2017352724140016</v>
+        <v>0.7798117873511712</v>
       </c>
       <c r="Z15" t="n">
         <v>1.832067339888261</v>
@@ -2771,10 +2771,10 @@
         <v>434.9747725949474</v>
       </c>
       <c r="R16" t="n">
-        <v>0.03668366301475316</v>
+        <v>0.1776781307107918</v>
       </c>
       <c r="S16" t="n">
-        <v>0.3971425786758251</v>
+        <v>1.923568837070754</v>
       </c>
       <c r="T16" t="n">
         <v>0.02424323199028495</v>
@@ -2792,7 +2792,7 @@
         <v>0.5036370135031565</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.1930510278295089</v>
+        <v>0.9350469101940364</v>
       </c>
       <c r="Z16" t="n">
         <v>1.226402369197755</v>
@@ -2917,10 +2917,10 @@
         <v>451.6460182989991</v>
       </c>
       <c r="R17" t="n">
-        <v>0.03338307942646043</v>
+        <v>0.1813154685736886</v>
       </c>
       <c r="S17" t="n">
-        <v>0.3658182722555836</v>
+        <v>1.986890142742924</v>
       </c>
       <c r="T17" t="n">
         <v>0.01831251302053091</v>
@@ -2938,7 +2938,7 @@
         <v>0.5186471434285413</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.1756701544403404</v>
+        <v>0.9541275674381292</v>
       </c>
       <c r="Z17" t="n">
         <v>1.160256273263031</v>
@@ -3063,10 +3063,10 @@
         <v>666.2793795323425</v>
       </c>
       <c r="R18" t="n">
-        <v>0.03904835858921185</v>
+        <v>0.2216613326618502</v>
       </c>
       <c r="S18" t="n">
-        <v>0.5156981242259047</v>
+        <v>2.927404316009116</v>
       </c>
       <c r="T18" t="n">
         <v>0.02291111455412285</v>
@@ -3084,7 +3084,7 @@
         <v>0.6586738663279574</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.2052529394970986</v>
+        <v>1.165135789197005</v>
       </c>
       <c r="Z18" t="n">
         <v>0.6165669580640616</v>
@@ -3204,10 +3204,10 @@
         <v>896.5270268499016</v>
       </c>
       <c r="R19" t="n">
-        <v>0.04054030977111726</v>
+        <v>0.2719872017944054</v>
       </c>
       <c r="S19" t="n">
-        <v>0.5853171132214685</v>
+        <v>3.926925193376464</v>
       </c>
       <c r="T19" t="n">
         <v>0.01781490266347666</v>
@@ -3225,7 +3225,7 @@
         <v>0.7990404597704105</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.2126489643793717</v>
+        <v>1.426673775128126</v>
       </c>
       <c r="Z19" t="n">
         <v>0.3340915542427599</v>
@@ -3350,10 +3350,10 @@
         <v>734.3102563714039</v>
       </c>
       <c r="R20" t="n">
-        <v>0.03944873165406423</v>
+        <v>0.2362831439242929</v>
       </c>
       <c r="S20" t="n">
-        <v>0.5359328299722179</v>
+        <v>3.210037146657739</v>
       </c>
       <c r="T20" t="n">
         <v>0.02134814395377662</v>
@@ -3371,7 +3371,7 @@
         <v>0.7240818090524622</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.2072539648827526</v>
+        <v>1.241373711142537</v>
       </c>
       <c r="Z20" t="n">
         <v>0.5668027625445189</v>
@@ -3496,10 +3496,10 @@
         <v>502.2349308672917</v>
       </c>
       <c r="R21" t="n">
-        <v>0.03980859679912572</v>
+        <v>0.1791845798329176</v>
       </c>
       <c r="S21" t="n">
-        <v>0.4923976397011756</v>
+        <v>2.216357050357354</v>
       </c>
       <c r="T21" t="n">
         <v>0.02825561070389321</v>
@@ -3517,7 +3517,7 @@
         <v>0.5684962285406479</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.2094384832107732</v>
+        <v>0.9427146303179958</v>
       </c>
       <c r="Z21" t="n">
         <v>1.219684522050477</v>
@@ -3642,10 +3642,10 @@
         <v>1096.631622468331</v>
       </c>
       <c r="R22" t="n">
-        <v>0.04255829215149603</v>
+        <v>0.2899835967925228</v>
       </c>
       <c r="S22" t="n">
-        <v>0.7042456790276882</v>
+        <v>4.798587647809612</v>
       </c>
       <c r="T22" t="n">
         <v>0.0174038302023853</v>
@@ -3663,7 +3663,7 @@
         <v>0.9228914990693117</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.2225414108714918</v>
+        <v>1.516352172452704</v>
       </c>
       <c r="Z22" t="n">
         <v>0.2644084526834496</v>
@@ -3788,10 +3788,10 @@
         <v>550.3911770750043</v>
       </c>
       <c r="R23" t="n">
-        <v>0.0408670816580026</v>
+        <v>0.1885154694327391</v>
       </c>
       <c r="S23" t="n">
-        <v>0.5259171832944808</v>
+        <v>2.425999622904041</v>
       </c>
       <c r="T23" t="n">
         <v>0.02890759349275285</v>
@@ -3809,7 +3809,7 @@
         <v>0.6018582254089324</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.2149582570766965</v>
+        <v>0.9915794105479429</v>
       </c>
       <c r="Z23" t="n">
         <v>1.270700200018976</v>
@@ -3934,10 +3934,10 @@
         <v>608.1527212277065</v>
       </c>
       <c r="R24" t="n">
-        <v>0.0377936729559876</v>
+        <v>0.1998930229818494</v>
       </c>
       <c r="S24" t="n">
-        <v>0.5038064737829934</v>
+        <v>2.664662922801566</v>
       </c>
       <c r="T24" t="n">
         <v>0.02297990996006357</v>
@@ -3955,7 +3955,7 @@
         <v>0.6427960171258907</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.1987301607617835</v>
+        <v>1.051095844497651</v>
       </c>
       <c r="Z24" t="n">
         <v>0.9403060490214101</v>
@@ -4080,10 +4080,10 @@
         <v>908.9696639913199</v>
       </c>
       <c r="R25" t="n">
-        <v>0.04230479651359771</v>
+        <v>0.2620628862971832</v>
       </c>
       <c r="S25" t="n">
-        <v>0.6410397899652233</v>
+        <v>3.971009233802363</v>
       </c>
       <c r="T25" t="n">
         <v>0.02233374295524875</v>
@@ -4101,7 +4101,7 @@
         <v>0.8320689154558195</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.2218707670406222</v>
+        <v>1.374409012390512</v>
       </c>
       <c r="Z25" t="n">
         <v>0.3984903451869591</v>
@@ -4226,10 +4226,10 @@
         <v>1314.018217590413</v>
       </c>
       <c r="R26" t="n">
-        <v>0.04444497183373953</v>
+        <v>0.3111449374357326</v>
       </c>
       <c r="S26" t="n">
-        <v>0.8241290689270911</v>
+        <v>5.769462258847229</v>
       </c>
       <c r="T26" t="n">
         <v>0.01577555112582155</v>
@@ -4247,7 +4247,7 @@
         <v>1.038153076897178</v>
       </c>
       <c r="Y26" t="n">
-        <v>0.2310917604806052</v>
+        <v>1.617799008302385</v>
       </c>
       <c r="Z26" t="n">
         <v>0.1595569486381158</v>
@@ -4372,10 +4372,10 @@
         <v>674.7790935562554</v>
       </c>
       <c r="R27" t="n">
-        <v>0.03441823279134287</v>
+        <v>0.2171764998636597</v>
       </c>
       <c r="S27" t="n">
-        <v>0.4655006394714957</v>
+        <v>2.937274559609091</v>
       </c>
       <c r="T27" t="n">
         <v>0.0134769187673007</v>
@@ -4393,7 +4393,7 @@
         <v>0.6984035117421397</v>
       </c>
       <c r="Y27" t="n">
-        <v>0.1809047879935763</v>
+        <v>1.141495814244838</v>
       </c>
       <c r="Z27" t="n">
         <v>0.7208481159768431</v>
@@ -4518,10 +4518,10 @@
         <v>865.1822285734298</v>
       </c>
       <c r="R28" t="n">
-        <v>0.03847013297358464</v>
+        <v>0.2481452745227085</v>
       </c>
       <c r="S28" t="n">
-        <v>0.584514138447362</v>
+        <v>3.770312451142793</v>
       </c>
       <c r="T28" t="n">
         <v>0.01646574031184168</v>
@@ -4539,7 +4539,7 @@
         <v>0.8105435191368208</v>
       </c>
       <c r="Y28" t="n">
-        <v>0.20186299489886</v>
+        <v>1.302084095200522</v>
       </c>
       <c r="Z28" t="n">
         <v>0.5089156324719775</v>
@@ -4664,10 +4664,10 @@
         <v>792.1594180567967</v>
       </c>
       <c r="R29" t="n">
-        <v>0.0384280812040048</v>
+        <v>0.2323032571743541</v>
       </c>
       <c r="S29" t="n">
-        <v>0.5715854683699347</v>
+        <v>3.455316057831864</v>
       </c>
       <c r="T29" t="n">
         <v>0.01926444434226905</v>
@@ -4685,7 +4685,7 @@
         <v>0.7659517937565385</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.2017914354739758</v>
+        <v>1.219858141800944</v>
       </c>
       <c r="Z29" t="n">
         <v>0.6028253547719883</v>
@@ -4810,10 +4810,10 @@
         <v>766.3661534933534</v>
       </c>
       <c r="R30" t="n">
-        <v>0.04135307295336228</v>
+        <v>0.2336197477542778</v>
       </c>
       <c r="S30" t="n">
-        <v>0.5926398488997591</v>
+        <v>3.348055225913699</v>
       </c>
       <c r="T30" t="n">
         <v>0.02462524351029041</v>
@@ -4831,7 +4831,7 @@
         <v>0.7559857606737993</v>
       </c>
       <c r="Y30" t="n">
-        <v>0.2172010372136118</v>
+        <v>1.227053950332506</v>
       </c>
       <c r="Z30" t="n">
         <v>0.5939724066101739</v>
@@ -4956,10 +4956,10 @@
         <v>1167.178528489277</v>
       </c>
       <c r="R31" t="n">
-        <v>0.0441533704908626</v>
+        <v>0.2909845109322784</v>
       </c>
       <c r="S31" t="n">
-        <v>0.7749255918158294</v>
+        <v>5.10700184009962</v>
       </c>
       <c r="T31" t="n">
         <v>0.01999937606182923</v>
@@ -4977,7 +4977,7 @@
         <v>0.972779729857419</v>
       </c>
       <c r="Y31" t="n">
-        <v>0.2305315928886052</v>
+        <v>1.519275245929688</v>
       </c>
       <c r="Z31" t="n">
         <v>0.2751042162819684</v>
@@ -5102,10 +5102,10 @@
         <v>596.1419006759852</v>
       </c>
       <c r="R32" t="n">
-        <v>0.04175664616713873</v>
+        <v>0.191236726899488</v>
       </c>
       <c r="S32" t="n">
-        <v>0.5725403077890016</v>
+        <v>2.62211514883971</v>
       </c>
       <c r="T32" t="n">
         <v>0.02966980642624281</v>
@@ -5123,7 +5123,7 @@
         <v>0.6438464051616188</v>
       </c>
       <c r="Y32" t="n">
-        <v>0.2195837411212499</v>
+        <v>1.005647718073182</v>
       </c>
       <c r="Z32" t="n">
         <v>1.048978297651586</v>
@@ -5248,10 +5248,10 @@
         <v>681.7347541629648</v>
       </c>
       <c r="R33" t="n">
-        <v>0.0418742017306853</v>
+        <v>0.2147797867693591</v>
       </c>
       <c r="S33" t="n">
-        <v>0.5818680462296156</v>
+        <v>2.984498563121746</v>
       </c>
       <c r="T33" t="n">
         <v>0.02761633270753693</v>
@@ -5269,7 +5269,7 @@
         <v>0.7061732995796922</v>
       </c>
       <c r="Y33" t="n">
-        <v>0.2200832978744763</v>
+        <v>1.128844057565363</v>
       </c>
       <c r="Z33" t="n">
         <v>0.7637387563969605</v>
@@ -5394,10 +5394,10 @@
         <v>641.1925452341859</v>
       </c>
       <c r="R34" t="n">
-        <v>0.04390219858016881</v>
+        <v>0.2181191187883231</v>
       </c>
       <c r="S34" t="n">
-        <v>0.5653557728603602</v>
+        <v>2.80885484021969</v>
       </c>
       <c r="T34" t="n">
         <v>0.03053410082176084</v>
@@ -5415,7 +5415,7 @@
         <v>0.6898047094878474</v>
       </c>
       <c r="Y34" t="n">
-        <v>0.2308043206129776</v>
+        <v>1.146704189146937</v>
       </c>
       <c r="Z34" t="n">
         <v>0.6861220696973235</v>
@@ -5540,10 +5540,10 @@
         <v>961.1623754652056</v>
       </c>
       <c r="R35" t="n">
-        <v>0.03763823422108711</v>
+        <v>0.2486386107575973</v>
       </c>
       <c r="S35" t="n">
-        <v>0.633228078552783</v>
+        <v>4.183112013683599</v>
       </c>
       <c r="T35" t="n">
         <v>0.01292455375541812</v>
@@ -5561,7 +5561,7 @@
         <v>0.8697198659016889</v>
       </c>
       <c r="Y35" t="n">
-        <v>0.197260720599199</v>
+        <v>1.303106602682988</v>
       </c>
       <c r="Z35" t="n">
         <v>0.4757175744027267</v>
@@ -5686,10 +5686,10 @@
         <v>948.0447993486778</v>
       </c>
       <c r="R36" t="n">
-        <v>0.03916515056437706</v>
+        <v>0.2587354444252838</v>
       </c>
       <c r="S36" t="n">
-        <v>0.6242933406508147</v>
+        <v>4.124248537728118</v>
       </c>
       <c r="T36" t="n">
         <v>0.01522635466613062</v>
@@ -5707,7 +5707,7 @@
         <v>0.8731019981734591</v>
       </c>
       <c r="Y36" t="n">
-        <v>0.205300520632395</v>
+        <v>1.356270068699268</v>
       </c>
       <c r="Z36" t="n">
         <v>0.4194914960754469</v>
@@ -5824,10 +5824,10 @@
         <v>731.1582382711508</v>
       </c>
       <c r="R37" t="n">
-        <v>0.03531094967665497</v>
+        <v>0.2210871590460066</v>
       </c>
       <c r="S37" t="n">
-        <v>0.5074384910571806</v>
+        <v>3.177148601375486</v>
       </c>
       <c r="T37" t="n">
         <v>0.01421077339668498</v>
@@ -5845,7 +5845,7 @@
         <v>0.7457998722046391</v>
       </c>
       <c r="Y37" t="n">
-        <v>0.1855197214706962</v>
+        <v>1.161566838121022</v>
       </c>
       <c r="Z37" t="n">
         <v>0.681491323520846</v>
@@ -5965,10 +5965,10 @@
         <v>1237.620054224844</v>
       </c>
       <c r="R38" t="n">
-        <v>0.04274822055582909</v>
+        <v>0.2945624602804249</v>
       </c>
       <c r="S38" t="n">
-        <v>0.7849026719442734</v>
+        <v>5.408479209716671</v>
       </c>
       <c r="T38" t="n">
         <v>0.01468116184367226</v>
@@ -5986,7 +5986,7 @@
         <v>1.023595129324798</v>
       </c>
       <c r="Y38" t="n">
-        <v>0.2227921901720302</v>
+        <v>1.535180056971724</v>
       </c>
       <c r="Z38" t="n">
         <v>0.2642243398515706</v>
@@ -6111,10 +6111,10 @@
         <v>827.0431622505405</v>
       </c>
       <c r="R39" t="n">
-        <v>0.04065033092139082</v>
+        <v>0.2282355956590671</v>
       </c>
       <c r="S39" t="n">
-        <v>0.6418659312404389</v>
+        <v>3.603824368200521</v>
       </c>
       <c r="T39" t="n">
         <v>0.02332108796415077</v>
@@ -6132,7 +6132,7 @@
         <v>0.8067555026985394</v>
       </c>
       <c r="Y39" t="n">
-        <v>0.2133890194658353</v>
+        <v>1.198095288795323</v>
       </c>
       <c r="Z39" t="n">
         <v>0.640406046647976</v>
@@ -6257,10 +6257,10 @@
         <v>1356.819071003376</v>
       </c>
       <c r="R40" t="n">
-        <v>0.04602681725103891</v>
+        <v>0.3084664161991244</v>
       </c>
       <c r="S40" t="n">
-        <v>0.8875288551020067</v>
+        <v>5.948115936703149</v>
       </c>
       <c r="T40" t="n">
         <v>0.01906641470522902</v>
@@ -6278,7 +6278,7 @@
         <v>1.094172658744034</v>
       </c>
       <c r="Y40" t="n">
-        <v>0.2389526579028645</v>
+        <v>1.601433130223408</v>
       </c>
       <c r="Z40" t="n">
         <v>0.2126555040774229</v>
@@ -6403,10 +6403,10 @@
         <v>1285.62119037289</v>
       </c>
       <c r="R41" t="n">
-        <v>0.04113196677268398</v>
+        <v>0.2817599513695137</v>
       </c>
       <c r="S41" t="n">
-        <v>0.8201451250791141</v>
+        <v>5.618113323764024</v>
       </c>
       <c r="T41" t="n">
         <v>0.01146235311416774</v>
@@ -6424,7 +6424,7 @@
         <v>1.049191794337178</v>
       </c>
       <c r="Y41" t="n">
-        <v>0.2140636948104054</v>
+        <v>1.466367425926581</v>
       </c>
       <c r="Z41" t="n">
         <v>0.2657888411605543</v>
@@ -6549,10 +6549,10 @@
         <v>888.1753965844797</v>
       </c>
       <c r="R42" t="n">
-        <v>0.07331008131562894</v>
+        <v>0.2435329039394293</v>
       </c>
       <c r="S42" t="n">
-        <v>1.201506779878049</v>
+        <v>3.991353303058379</v>
       </c>
       <c r="T42" t="n">
         <v>0.06482978289401362</v>
@@ -6570,7 +6570,7 @@
         <v>0.8512252543402778</v>
       </c>
       <c r="Y42" t="n">
-        <v>0.3845766396273712</v>
+        <v>1.277546882433404</v>
       </c>
       <c r="Z42" t="n">
         <v>0.5655387842082904</v>
@@ -6695,10 +6695,10 @@
         <v>756.626884698804</v>
       </c>
       <c r="R43" t="n">
-        <v>0.06203838364774498</v>
+        <v>0.2164001039216811</v>
       </c>
       <c r="S43" t="n">
-        <v>0.9687628532988802</v>
+        <v>3.379204450581494</v>
       </c>
       <c r="T43" t="n">
         <v>0.05326109736100897</v>
@@ -6716,7 +6716,7 @@
         <v>0.7710099935529405</v>
       </c>
       <c r="Y43" t="n">
-        <v>0.3258747566398038</v>
+        <v>1.136704843935265</v>
       </c>
       <c r="Z43" t="n">
         <v>0.7943544248284046</v>
@@ -6841,10 +6841,10 @@
         <v>796.81431764461</v>
       </c>
       <c r="R44" t="n">
-        <v>0.09495942486587207</v>
+        <v>0.2326939981581573</v>
       </c>
       <c r="S44" t="n">
-        <v>1.523357242064906</v>
+        <v>3.732921590247159</v>
       </c>
       <c r="T44" t="n">
         <v>0.08925403538918299</v>
@@ -6862,7 +6862,7 @@
         <v>0.8006128553838092</v>
       </c>
       <c r="Y44" t="n">
-        <v>0.4986241927308026</v>
+        <v>1.221857200049381</v>
       </c>
       <c r="Z44" t="n">
         <v>0.7444129683581038</v>
@@ -6987,10 +6987,10 @@
         <v>1230.299326711783</v>
       </c>
       <c r="R45" t="n">
-        <v>0.0790469899804595</v>
+        <v>0.2820988899053841</v>
       </c>
       <c r="S45" t="n">
-        <v>1.546299828623567</v>
+        <v>5.518356426012242</v>
       </c>
       <c r="T45" t="n">
         <v>0.06882906586520145</v>
@@ -7008,7 +7008,7 @@
         <v>1.04549216297946</v>
       </c>
       <c r="Y45" t="n">
-        <v>0.4120551110231997</v>
+        <v>1.470521387698876</v>
       </c>
       <c r="Z45" t="n">
         <v>0.3122784966545478</v>
@@ -7133,10 +7133,10 @@
         <v>1101.247854762019</v>
       </c>
       <c r="R46" t="n">
-        <v>0.05939570343942233</v>
+        <v>0.2646564500047142</v>
       </c>
       <c r="S46" t="n">
-        <v>1.088605226686021</v>
+        <v>4.850626864704772</v>
       </c>
       <c r="T46" t="n">
         <v>0.04623459304315741</v>
@@ -7154,7 +7154,7 @@
         <v>0.981750301436303</v>
       </c>
       <c r="Y46" t="n">
-        <v>0.3105574310086273</v>
+        <v>1.383787419862009</v>
       </c>
       <c r="Z46" t="n">
         <v>0.3682336438301902</v>
@@ -7279,10 +7279,10 @@
         <v>1140.32678451486</v>
       </c>
       <c r="R47" t="n">
-        <v>0.07939318528499791</v>
+        <v>0.2720394608535724</v>
       </c>
       <c r="S47" t="n">
-        <v>1.494014665395925</v>
+        <v>5.119217003608957</v>
       </c>
       <c r="T47" t="n">
         <v>0.06987941318531371</v>
@@ -7300,7 +7300,7 @@
         <v>1.004787008460192</v>
       </c>
       <c r="Y47" t="n">
-        <v>0.4147770679562156</v>
+        <v>1.421226891655597</v>
       </c>
       <c r="Z47" t="n">
         <v>0.3861022322764417</v>
@@ -7425,10 +7425,10 @@
         <v>991.4228377102024</v>
       </c>
       <c r="R48" t="n">
-        <v>0.1382378251403797</v>
+        <v>0.2790928755616518</v>
       </c>
       <c r="S48" t="n">
-        <v>2.420048308617261</v>
+        <v>4.885914841066255</v>
       </c>
       <c r="T48" t="n">
         <v>0.1335603083380391</v>
@@ -7446,7 +7446,7 @@
         <v>0.9270861107020413</v>
       </c>
       <c r="Y48" t="n">
-        <v>0.7241793981314657</v>
+        <v>1.462069519986821</v>
       </c>
       <c r="Z48" t="n">
         <v>0.4979930645837926</v>
@@ -7571,10 +7571,10 @@
         <v>986.0094556619459</v>
       </c>
       <c r="R49" t="n">
-        <v>0.1930513933370051</v>
+        <v>0.3074102121612757</v>
       </c>
       <c r="S49" t="n">
-        <v>3.402392446927348</v>
+        <v>5.417884667322776</v>
       </c>
       <c r="T49" t="n">
         <v>0.1897634785374493</v>
@@ -7592,7 +7592,7 @@
         <v>0.9316623157698709</v>
       </c>
       <c r="Y49" t="n">
-        <v>1.011410951140014</v>
+        <v>1.610545511730276</v>
       </c>
       <c r="Z49" t="n">
         <v>0.528401091206154</v>
@@ -7712,10 +7712,10 @@
         <v>1262.10878776987</v>
       </c>
       <c r="R50" t="n">
-        <v>0.1781040956376563</v>
+        <v>0.3258284558540636</v>
       </c>
       <c r="S50" t="n">
-        <v>3.54269211027309</v>
+        <v>6.48109688732279</v>
       </c>
       <c r="T50" t="n">
         <v>0.1736907757696511</v>
@@ -7733,7 +7733,7 @@
         <v>1.082415391738215</v>
       </c>
       <c r="Y50" t="n">
-        <v>0.9275759549193242</v>
+        <v>1.69693257191342</v>
       </c>
       <c r="Z50" t="n">
         <v>0.2798119183242095</v>
@@ -7858,10 +7858,10 @@
         <v>1438.421579416123</v>
       </c>
       <c r="R51" t="n">
-        <v>0.2179489991500471</v>
+        <v>0.3616316432504626</v>
       </c>
       <c r="S51" t="n">
-        <v>4.696112734221118</v>
+        <v>7.792020021145571</v>
       </c>
       <c r="T51" t="n">
         <v>0.2139332507002649</v>
@@ -7879,7 +7879,7 @@
         <v>1.179441860487108</v>
       </c>
       <c r="Y51" t="n">
-        <v>1.127683161680368</v>
+        <v>1.871107077411237</v>
       </c>
       <c r="Z51" t="n">
         <v>0.2565001374902464</v>
@@ -8004,10 +8004,10 @@
         <v>1130.45330750387</v>
       </c>
       <c r="R52" t="n">
-        <v>0.2898615027603906</v>
+        <v>0.3833230658380932</v>
       </c>
       <c r="S52" t="n">
-        <v>5.5822266595148</v>
+        <v>7.382133249675379</v>
       </c>
       <c r="T52" t="n">
         <v>0.2874467778730532</v>
@@ -8025,7 +8025,7 @@
         <v>1.034969981867021</v>
       </c>
       <c r="Y52" t="n">
-        <v>1.514659860100104</v>
+        <v>2.003039574922152</v>
       </c>
       <c r="Z52" t="n">
         <v>0.4737852531373214</v>
@@ -8150,10 +8150,10 @@
         <v>1079.234183124676</v>
       </c>
       <c r="R53" t="n">
-        <v>0.2805915893238271</v>
+        <v>0.3683295506480807</v>
       </c>
       <c r="S53" t="n">
-        <v>5.415496091882988</v>
+        <v>7.108863265882341</v>
       </c>
       <c r="T53" t="n">
         <v>0.2782483466569924</v>
@@ -8171,7 +8171,7 @@
         <v>1.004709704806168</v>
       </c>
       <c r="Y53" t="n">
-        <v>1.467733055945123</v>
+        <v>1.926677340081249</v>
       </c>
       <c r="Z53" t="n">
         <v>0.5694848542965316</v>
@@ -8296,10 +8296,10 @@
         <v>1246.375922199096</v>
       </c>
       <c r="R54" t="n">
-        <v>0.3022134183241885</v>
+        <v>0.3954497449951028</v>
       </c>
       <c r="S54" t="n">
-        <v>6.30152182452821</v>
+        <v>8.245614018096386</v>
       </c>
       <c r="T54" t="n">
         <v>0.2997350127308442</v>
@@ -8317,7 +8317,7 @@
         <v>1.125364378941089</v>
       </c>
       <c r="Y54" t="n">
-        <v>1.574665268712176</v>
+        <v>2.060467673532931</v>
       </c>
       <c r="Z54" t="n">
         <v>0.4803640769736678</v>
